--- a/src/test/java/TestData/Create_PUM.xlsx
+++ b/src/test/java/TestData/Create_PUM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tausi\OneDrive - DP World\Desktop\Taqdis\DP_World\VBS_ApiAutomation\src\test\java\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70152524-8153-4B2E-94D6-5481F85353E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D67B9C1-3B26-4B01-B55A-BF49A78DEB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="20" yWindow="0" windowWidth="19180" windowHeight="11280" xr2:uid="{E3F98B02-0D6C-40EC-B184-554FC05A4ABC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>appointmentType</t>
   </si>
@@ -78,6 +78,15 @@
   </si>
   <si>
     <t>NOISO</t>
+  </si>
+  <si>
+    <t>Rejected</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>Partially_Approved</t>
   </si>
 </sst>
 </file>
@@ -493,14 +502,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E243F4E-2084-48F8-BA9A-A6C15D2937A9}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
+    <col min="1" max="1" width="15.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
@@ -567,6 +577,66 @@
         <v>13</v>
       </c>
     </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
